--- a/db.xlsx
+++ b/db.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10695" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10695"/>
   </bookViews>
   <sheets>
-    <sheet name="Item" sheetId="1" r:id="rId1"/>
-    <sheet name="Event" sheetId="2" r:id="rId2"/>
+    <sheet name="Event" sheetId="2" r:id="rId1"/>
+    <sheet name="Item" sheetId="1" r:id="rId2"/>
     <sheet name="Job" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1"/>
@@ -41,10 +41,6 @@
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Effect</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -70,11 +66,35 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>かしこさ+5　</t>
+    <t>かしこさ+5/お金+100</t>
+    <rPh sb="8" eb="9">
+      <t>カネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Effect 子供</t>
+    <rPh sb="7" eb="9">
+      <t>コドモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Effect 大人</t>
+    <rPh sb="7" eb="9">
+      <t>オトナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤マス</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かしこさ-5/お金-100</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -405,6 +425,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="33.125" customWidth="1"/>
+    <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>-5</v>
+      </c>
+      <c r="D3">
+        <v>-100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -429,56 +512,15 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="33.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/db.xlsx
+++ b/db.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10695"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10695" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Event" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1"/>
@@ -95,6 +95,14 @@
   </si>
   <si>
     <t>かしこさ-5/お金-100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Salary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Baritu</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -427,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -531,17 +539,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/db.xlsx
+++ b/db.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProgramData\JavaScript\game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10695" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10695" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Event" sheetId="2" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -432,7 +432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -495,10 +495,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -538,10 +538,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/db.xlsx
+++ b/db.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10695" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10695"/>
   </bookViews>
   <sheets>
     <sheet name="Event" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1"/>
@@ -103,6 +103,14 @@
   </si>
   <si>
     <t>Baritu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムマス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そんなのないよ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -433,14 +441,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
     <col min="2" max="2" width="33.125" customWidth="1"/>
     <col min="3" max="3" width="11.75" customWidth="1"/>
     <col min="4" max="4" width="11.125" customWidth="1"/>
@@ -486,6 +495,20 @@
       </c>
       <c r="D3">
         <v>-100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -541,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/db.xlsx
+++ b/db.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10695"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10695" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Event" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1"/>
@@ -102,15 +102,54 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Baritu</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アイテムマス</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>そんなのないよ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サラリーマン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お笑い芸人</t>
+    <rPh sb="1" eb="2">
+      <t>ワラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゲイニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スポーツ選手</t>
+    <rPh sb="4" eb="6">
+      <t>センシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弁護士</t>
+    <rPh sb="0" eb="3">
+      <t>ベンゴシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宇宙飛行士</t>
+    <rPh sb="0" eb="5">
+      <t>ウチュウヒコウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bairitu</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -443,7 +482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -499,10 +538,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -562,13 +601,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
@@ -578,11 +621,78 @@
         <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>200</v>
+      </c>
+      <c r="C4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>300</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>400</v>
+      </c>
+      <c r="C6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>600</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>